--- a/4ο Παραδοτέο/methods.xlsx
+++ b/4ο Παραδοτέο/methods.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyria\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vasilis_kyriakos/Documents/GitHub/financial-wallet/4ο Παραδοτέο/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A8A115-CCB7-487C-A56F-37ED98C0B8D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA87D046-AB24-914C-AD6C-C5A4D6219008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3008D743-0D22-48D6-B4EB-33E5641AD738}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="28800" xr2:uid="{3008D743-0D22-48D6-B4EB-33E5641AD738}"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="171">
-  <si>
-    <t>User</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="168">
   <si>
     <t>Premium User</t>
   </si>
@@ -99,21 +96,12 @@
     <t xml:space="preserve">Bank Account </t>
   </si>
   <si>
-    <t>Vault</t>
-  </si>
-  <si>
     <t xml:space="preserve">Account History </t>
   </si>
   <si>
     <t xml:space="preserve">History Grouping </t>
   </si>
   <si>
-    <t>Statistics</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lock Account </t>
-  </si>
-  <si>
     <t xml:space="preserve">Kid Account </t>
   </si>
   <si>
@@ -547,6 +535,9 @@
   </si>
   <si>
     <t>getTransactionNumber()</t>
+  </si>
+  <si>
+    <t>authentication()</t>
   </si>
 </sst>
 </file>
@@ -908,629 +899,683 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D5C8096-1A00-41BA-8C9D-4A94B0332E47}">
-  <dimension ref="A1:AZ13"/>
+  <dimension ref="A1:AZ44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AI1" sqref="AI1"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" customWidth="1"/>
+    <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
     <col min="4" max="4" width="20.33203125" customWidth="1"/>
     <col min="5" max="5" width="24.33203125" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" customWidth="1"/>
-    <col min="7" max="8" width="16.88671875" customWidth="1"/>
-    <col min="9" max="9" width="12.44140625" customWidth="1"/>
+    <col min="6" max="6" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="16.83203125" customWidth="1"/>
+    <col min="9" max="9" width="12.5" customWidth="1"/>
     <col min="10" max="10" width="21" customWidth="1"/>
-    <col min="11" max="11" width="14.77734375" customWidth="1"/>
+    <col min="11" max="11" width="14.83203125" customWidth="1"/>
     <col min="12" max="12" width="15.6640625" customWidth="1"/>
-    <col min="13" max="13" width="13.88671875" customWidth="1"/>
+    <col min="13" max="13" width="13.83203125" customWidth="1"/>
     <col min="14" max="14" width="22.6640625" customWidth="1"/>
-    <col min="15" max="15" width="15.88671875" customWidth="1"/>
-    <col min="16" max="16" width="20.44140625" customWidth="1"/>
-    <col min="17" max="17" width="13.77734375" customWidth="1"/>
-    <col min="18" max="18" width="11.44140625" customWidth="1"/>
+    <col min="15" max="15" width="15.83203125" customWidth="1"/>
+    <col min="16" max="16" width="20.5" customWidth="1"/>
+    <col min="17" max="17" width="13.83203125" customWidth="1"/>
+    <col min="18" max="18" width="11.5" customWidth="1"/>
     <col min="19" max="19" width="13" customWidth="1"/>
-    <col min="20" max="20" width="22.77734375" customWidth="1"/>
+    <col min="20" max="20" width="22.83203125" customWidth="1"/>
     <col min="21" max="21" width="19.33203125" customWidth="1"/>
     <col min="23" max="23" width="15" customWidth="1"/>
     <col min="24" max="24" width="16" customWidth="1"/>
-    <col min="26" max="26" width="12.77734375" customWidth="1"/>
-    <col min="27" max="27" width="17.21875" customWidth="1"/>
+    <col min="26" max="26" width="12.83203125" customWidth="1"/>
+    <col min="27" max="27" width="17.1640625" customWidth="1"/>
     <col min="28" max="28" width="12.6640625" customWidth="1"/>
     <col min="29" max="29" width="20" customWidth="1"/>
-    <col min="30" max="30" width="14.21875" customWidth="1"/>
-    <col min="31" max="31" width="11.44140625" customWidth="1"/>
-    <col min="33" max="33" width="12.109375" customWidth="1"/>
-    <col min="34" max="34" width="17.21875" customWidth="1"/>
+    <col min="30" max="30" width="14.1640625" customWidth="1"/>
+    <col min="31" max="31" width="11.5" customWidth="1"/>
+    <col min="33" max="33" width="12.1640625" customWidth="1"/>
+    <col min="34" max="34" width="17.1640625" customWidth="1"/>
     <col min="36" max="36" width="21.6640625" customWidth="1"/>
-    <col min="37" max="37" width="21.109375" customWidth="1"/>
-    <col min="38" max="38" width="17.44140625" customWidth="1"/>
-    <col min="39" max="39" width="15.44140625" customWidth="1"/>
-    <col min="40" max="40" width="13.109375" customWidth="1"/>
-    <col min="41" max="41" width="18.21875" customWidth="1"/>
-    <col min="42" max="42" width="16.5546875" customWidth="1"/>
-    <col min="43" max="43" width="19.88671875" customWidth="1"/>
+    <col min="37" max="37" width="21.1640625" customWidth="1"/>
+    <col min="38" max="38" width="17.5" customWidth="1"/>
+    <col min="39" max="39" width="15.5" customWidth="1"/>
+    <col min="40" max="40" width="13.1640625" customWidth="1"/>
+    <col min="41" max="41" width="18.1640625" customWidth="1"/>
+    <col min="42" max="42" width="16.5" customWidth="1"/>
+    <col min="43" max="43" width="19.83203125" customWidth="1"/>
     <col min="44" max="44" width="15.33203125" customWidth="1"/>
     <col min="45" max="45" width="12.6640625" customWidth="1"/>
-    <col min="46" max="46" width="16.109375" customWidth="1"/>
+    <col min="46" max="46" width="16.1640625" customWidth="1"/>
     <col min="47" max="47" width="15.6640625" customWidth="1"/>
-    <col min="48" max="48" width="14.44140625" customWidth="1"/>
+    <col min="48" max="48" width="14.5" customWidth="1"/>
     <col min="49" max="49" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="18.21875" customWidth="1"/>
-    <col min="51" max="51" width="13.44140625" customWidth="1"/>
+    <col min="50" max="50" width="18.1640625" customWidth="1"/>
+    <col min="51" max="51" width="13.5" customWidth="1"/>
     <col min="52" max="52" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L2" t="s">
+        <v>100</v>
+      </c>
+      <c r="M2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>48</v>
+      </c>
+      <c r="R2" t="s">
+        <v>104</v>
+      </c>
+      <c r="T2" t="s">
+        <v>42</v>
+      </c>
+      <c r="U2" t="s">
+        <v>44</v>
+      </c>
+      <c r="V2" t="s">
+        <v>53</v>
+      </c>
+      <c r="W2" t="s">
+        <v>57</v>
+      </c>
+      <c r="X2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>134</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" t="s">
+        <v>88</v>
+      </c>
+      <c r="M3" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>66</v>
+      </c>
+      <c r="R3" t="s">
+        <v>105</v>
+      </c>
+      <c r="T3" t="s">
+        <v>67</v>
+      </c>
+      <c r="U3" t="s">
+        <v>45</v>
+      </c>
+      <c r="V3" t="s">
+        <v>54</v>
+      </c>
+      <c r="W3" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>146</v>
+      </c>
+      <c r="K4" t="s">
+        <v>89</v>
+      </c>
+      <c r="M4" t="s">
+        <v>83</v>
+      </c>
+      <c r="T4" t="s">
+        <v>82</v>
+      </c>
+      <c r="U4" t="s">
+        <v>68</v>
+      </c>
+      <c r="V4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>147</v>
+      </c>
+      <c r="K5" t="s">
+        <v>90</v>
+      </c>
+      <c r="M5" t="s">
+        <v>96</v>
+      </c>
+      <c r="T5" t="s">
+        <v>83</v>
+      </c>
+      <c r="U5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" t="s">
+        <v>91</v>
+      </c>
+      <c r="M6" t="s">
+        <v>108</v>
+      </c>
+      <c r="T6" t="s">
+        <v>99</v>
+      </c>
+      <c r="U6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" t="s">
+        <v>121</v>
+      </c>
+      <c r="M7" t="s">
+        <v>139</v>
+      </c>
+      <c r="T7" t="s">
+        <v>119</v>
+      </c>
+      <c r="U7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>122</v>
+      </c>
+      <c r="M8" t="s">
+        <v>150</v>
+      </c>
+      <c r="T8" t="s">
+        <v>51</v>
+      </c>
+      <c r="U8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="F9" t="s">
+        <v>123</v>
+      </c>
+      <c r="M9" t="s">
+        <v>151</v>
+      </c>
+      <c r="T9" t="s">
+        <v>154</v>
+      </c>
+      <c r="U9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>167</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s">
+        <v>155</v>
+      </c>
+      <c r="U10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+      <c r="T11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="F13" t="s">
+        <v>82</v>
+      </c>
+      <c r="T13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="16" spans="1:52" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>94</v>
+      </c>
+      <c r="F18" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>138</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>160</v>
+      </c>
+      <c r="D21" t="s">
+        <v>113</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>161</v>
+      </c>
+      <c r="D22" t="s">
+        <v>114</v>
+      </c>
+      <c r="F22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>162</v>
+      </c>
+      <c r="D23" t="s">
+        <v>120</v>
+      </c>
+      <c r="F23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>163</v>
+      </c>
+      <c r="D24" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>126</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="D27" t="s">
+        <v>127</v>
+      </c>
+      <c r="F27" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>115</v>
+      </c>
+      <c r="D28" t="s">
+        <v>128</v>
+      </c>
+      <c r="F28" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>116</v>
+      </c>
+      <c r="D29" t="s">
+        <v>129</v>
+      </c>
+      <c r="F29" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B33" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="D33" t="s">
+        <v>86</v>
+      </c>
+      <c r="F33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>101</v>
+      </c>
+      <c r="F34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>103</v>
+      </c>
+      <c r="F35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>46</v>
+      </c>
+      <c r="F37" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B38" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
+      <c r="D38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>74</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F41" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F42" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B43" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AV1" s="1" t="s">
+      <c r="F43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>93</v>
+      </c>
+      <c r="F44" t="s">
         <v>110</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="2" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H2" t="s">
-        <v>62</v>
-      </c>
-      <c r="I2" t="s">
-        <v>68</v>
-      </c>
-      <c r="J2" t="s">
-        <v>117</v>
-      </c>
-      <c r="K2" t="s">
-        <v>119</v>
-      </c>
-      <c r="L2" t="s">
-        <v>125</v>
-      </c>
-      <c r="M2" t="s">
-        <v>86</v>
-      </c>
-      <c r="N2" t="s">
-        <v>134</v>
-      </c>
-      <c r="O2" t="s">
-        <v>35</v>
-      </c>
-      <c r="P2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>105</v>
-      </c>
-      <c r="R2" t="s">
-        <v>77</v>
-      </c>
-      <c r="S2" t="s">
-        <v>90</v>
-      </c>
-      <c r="T2" t="s">
-        <v>50</v>
-      </c>
-      <c r="U2" t="s">
-        <v>41</v>
-      </c>
-      <c r="W2" t="s">
-        <v>96</v>
-      </c>
-      <c r="X2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>108</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>57</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>86</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>102</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>138</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>146</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>149</v>
-      </c>
-      <c r="D3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" t="s">
-        <v>54</v>
-      </c>
-      <c r="H3" t="s">
-        <v>63</v>
-      </c>
-      <c r="J3" t="s">
-        <v>118</v>
-      </c>
-      <c r="K3" t="s">
-        <v>120</v>
-      </c>
-      <c r="L3" t="s">
-        <v>126</v>
-      </c>
-      <c r="M3" t="s">
-        <v>136</v>
-      </c>
-      <c r="O3" t="s">
-        <v>36</v>
-      </c>
-      <c r="P3" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>107</v>
-      </c>
-      <c r="R3" t="s">
-        <v>78</v>
-      </c>
-      <c r="T3" t="s">
-        <v>69</v>
-      </c>
-      <c r="U3" t="s">
-        <v>42</v>
-      </c>
-      <c r="W3" t="s">
-        <v>169</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>86</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>70</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>109</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>49</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>105</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>116</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>115</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>150</v>
-      </c>
-      <c r="E4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" t="s">
-        <v>124</v>
-      </c>
-      <c r="K4" t="s">
-        <v>121</v>
-      </c>
-      <c r="L4" t="s">
-        <v>127</v>
-      </c>
-      <c r="P4" t="s">
-        <v>163</v>
-      </c>
-      <c r="U4" t="s">
-        <v>55</v>
-      </c>
-      <c r="W4" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>87</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>86</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>72</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>59</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>147</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>151</v>
-      </c>
-      <c r="E5" t="s">
-        <v>52</v>
-      </c>
-      <c r="J5" t="s">
-        <v>128</v>
-      </c>
-      <c r="U5" t="s">
-        <v>122</v>
-      </c>
-      <c r="W5" t="s">
-        <v>114</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>94</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>100</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>87</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>79</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="6" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>153</v>
-      </c>
-      <c r="E6" t="s">
-        <v>98</v>
-      </c>
-      <c r="J6" t="s">
-        <v>129</v>
-      </c>
-      <c r="U6" t="s">
-        <v>135</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>112</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>103</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>80</v>
-      </c>
-      <c r="AQ6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="7" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="E7" t="s">
-        <v>99</v>
-      </c>
-      <c r="J7" t="s">
-        <v>130</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>143</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>123</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="E8" t="s">
-        <v>142</v>
-      </c>
-      <c r="J8" t="s">
-        <v>131</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>154</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="9" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="E9" t="s">
-        <v>164</v>
-      </c>
-      <c r="J9" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>155</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>158</v>
-      </c>
-      <c r="AK9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="10" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="E10" t="s">
-        <v>165</v>
-      </c>
-      <c r="J10" t="s">
-        <v>133</v>
-      </c>
-      <c r="AJ10" t="s">
-        <v>159</v>
-      </c>
-      <c r="AK10" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="11" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="E11" t="s">
-        <v>166</v>
-      </c>
-      <c r="AJ11" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="12" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="E12" t="s">
-        <v>167</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="13" spans="1:52" x14ac:dyDescent="0.3">
-      <c r="AJ13" t="s">
-        <v>170</v>
       </c>
     </row>
   </sheetData>
